--- a/PPG/Autoavaliação PPG.xlsx
+++ b/PPG/Autoavaliação PPG.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050A231F-3AC5-8C47-9088-56CD8DBEBFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A946D33-45BE-1546-A29F-8DC957787C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="2" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Autoavaliação 2021-2024" sheetId="16" r:id="rId1"/>
-    <sheet name="Autoavaliação 2017-2020" sheetId="15" r:id="rId2"/>
-    <sheet name="Autoavaliação 2013-2016" sheetId="17" r:id="rId3"/>
+    <sheet name="2021-2024" sheetId="16" r:id="rId1"/>
+    <sheet name="2017-2020" sheetId="15" r:id="rId2"/>
+    <sheet name="2013-2016" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -565,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F539FA68-E851-0F46-9194-063EAA74D710}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/PPG/Autoavaliação PPG.xlsx
+++ b/PPG/Autoavaliação PPG.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A946D33-45BE-1546-A29F-8DC957787C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2BCCF4-9044-E543-B451-371D0B459030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-2024" sheetId="16" r:id="rId1"/>
-    <sheet name="2017-2020" sheetId="15" r:id="rId2"/>
-    <sheet name="2013-2016" sheetId="17" r:id="rId3"/>
+    <sheet name="2025-2028" sheetId="19" r:id="rId1"/>
+    <sheet name="2021-2024" sheetId="16" r:id="rId2"/>
+    <sheet name="2017-2020" sheetId="15" r:id="rId3"/>
+    <sheet name="2013-2016" sheetId="17" r:id="rId4"/>
+    <sheet name="2010-2012" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Publicação</t>
   </si>
@@ -104,9 +106,6 @@
     <t>https://drive.google.com/file/d/1ilDduzPYnLHOlnhH-TUPL4cVPcq43Kqw</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1k3PppnhBXToQItVOiMzSGAeGvwOYOXFN</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1nH6uwlrnGT-FaR7CoJ3LfaEH_7yVhvE9</t>
   </si>
   <si>
@@ -192,6 +191,33 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1W69tgzms10O_TyunoijEDQWxfocqfwnP</t>
+  </si>
+  <si>
+    <t>2021-2024</t>
+  </si>
+  <si>
+    <t>2013-2016</t>
+  </si>
+  <si>
+    <t>2010-2012</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1V7tA25HeXjYh7p2BpDfpN45UaZexzOnY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dG55zhY_a8nIHYjuq3SmfptbCuK-vtWA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13OgTewhlHINFNDAVdQqYimMBAYxPmmzN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kFRzBcqbLMpBg4srBIxtVbcD-5vJ2tfZ</t>
+  </si>
+  <si>
+    <t>2025-2028</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XZImU9Zs_EzOBtZS3XIvEi-40CybRPXz</t>
   </si>
 </sst>
 </file>
@@ -562,8 +588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759DAEF-1C33-2240-8067-C53C73887A8D}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,218 +613,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2023</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2023</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2023</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2024</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2024</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2024</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2024</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2024</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2024</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{A7DA1C44-4E81-9C4D-84AA-C4B46C8E0CA0}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{A65C386E-1AB6-E14B-BD9D-7F5DF385DBAC}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{6A218302-4C72-924C-8E4A-942A4F3A19F4}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{5C7618D2-0379-2440-B242-831DCBF5D066}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
-    <hyperlink ref="C11" r:id="rId13" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
-    <hyperlink ref="C13" r:id="rId16" xr:uid="{16A22DE2-AF95-2242-881F-1F6FA08AEDF9}"/>
-    <hyperlink ref="C17" r:id="rId17" xr:uid="{A5D54BD5-B8E2-4A45-9B8A-E268890EE3EE}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{87A61870-D487-C348-B1D6-DA553E86BFEE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -822,104 +662,353 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2024</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{CD2E828A-526F-5946-A54F-DA2B99E34B69}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{167856B5-A2D0-FA45-92F2-9FF10BF53DCB}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{E1980CB6-AF3F-0A4C-B919-F8B3A8DFD7E1}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{8D6148B3-0CCD-6248-B109-FABF37E0C91F}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{E8FE509F-5855-6B49-9029-33CE31C5084C}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{76A02310-C53E-BD4B-9ACF-A3B44F81BE3D}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{B3956656-7781-B346-83B7-F42CE185A9E7}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A65C386E-1AB6-E14B-BD9D-7F5DF385DBAC}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{6A218302-4C72-924C-8E4A-942A4F3A19F4}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{5C7618D2-0379-2440-B242-831DCBF5D066}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{16A22DE2-AF95-2242-881F-1F6FA08AEDF9}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{A5D54BD5-B8E2-4A45-9B8A-E268890EE3EE}"/>
+    <hyperlink ref="C3" r:id="rId17" xr:uid="{52181E37-6E98-6A4A-8AA7-ED997A745E46}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{CD2E828A-526F-5946-A54F-DA2B99E34B69}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{167856B5-A2D0-FA45-92F2-9FF10BF53DCB}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{E1980CB6-AF3F-0A4C-B919-F8B3A8DFD7E1}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{8D6148B3-0CCD-6248-B109-FABF37E0C91F}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{E8FE509F-5855-6B49-9029-33CE31C5084C}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{76A02310-C53E-BD4B-9ACF-A3B44F81BE3D}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{B3956656-7781-B346-83B7-F42CE185A9E7}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{75C4458C-313C-9743-9188-ABF56208E76C}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F539FA68-E851-0F46-9194-063EAA74D710}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -942,14 +1031,77 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2016</v>
       </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{5236BDF4-0819-224E-8FD0-89E874DD08DA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{523036E0-EA48-5147-AAD5-A2550EF1502E}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157BED6B-FEA3-424A-92B6-D4B0980E4ED2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -960,7 +1112,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5236BDF4-0819-224E-8FD0-89E874DD08DA}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0140838C-980C-4D40-93D8-1373B0875C3D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Autoavaliação PPG.xlsx
+++ b/PPG/Autoavaliação PPG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2BCCF4-9044-E543-B451-371D0B459030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA7DEB9-567C-E742-A221-9B559348BC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Publicação</t>
   </si>
@@ -79,9 +79,6 @@
     <t>2021-2022</t>
   </si>
   <si>
-    <t>Perfil do Egresso</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1jguRrIcKgoeerK-VTe4po3DZvOCAOJZ3</t>
   </si>
   <si>
@@ -218,6 +215,57 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1XZImU9Zs_EzOBtZS3XIvEi-40CybRPXz</t>
+  </si>
+  <si>
+    <t>Perfil do Candidato - Diversidade, Equidade e Inclusão</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O61IAYSr4H2RwCnQIaTquvCMNu9CG-yy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1auRKV9GHT4lUGM83lC9uxO4i8uugSJDD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14k6iEfraey9toB52K-MvM-UcnQsfcQsU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1B9hPed3JBC5NdduTllyWfNfCcWwpgbm5</t>
+  </si>
+  <si>
+    <t>Perfil do Egresso - Sociodemográfico, Ocupacional e Atividades futuras</t>
+  </si>
+  <si>
+    <t>Proposta Curricular - Qualidade da Estrutura Curricular</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1L91kHlH436Jy_dI9Ohb13ZfllGUNcDLw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xJ5nVVXWAMqzEe_ek01q0_K9VkPvfwIU</t>
+  </si>
+  <si>
+    <t>Orientação de Dissertação e Tese - Qualidade da Orientação</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YONm0hen1qLvqefZYQgI-7aIX8vdnHYp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1G4B3KJHOHSCNj_XL6ZDS9XcEUihjUBGC</t>
+  </si>
+  <si>
+    <t>Acompanhamento dos Egressos de Destaque</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kTG3uZCL3CgokvwN5FMdRmaWqLDxJw2L</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ySUbUwzZBjXz2rvjCamtaXn2hzXT9VPZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Hw4SPb24ZSlRm0qoj30sVdnSIyE_NMaz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PL2kGAcdmrf76ZLgfs4P0v33759kCcyg</t>
   </si>
 </sst>
 </file>
@@ -249,12 +297,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,10 +324,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -589,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759DAEF-1C33-2240-8067-C53C73887A8D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,24 +669,66 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{87A61870-D487-C348-B1D6-DA553E86BFEE}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D7FEB94A-4E31-DF43-A4D1-37B4F36C5688}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6229E5D9-627C-DC49-A5F7-280EF72ECC8F}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{346B1A19-821D-B248-AE3A-7DD930CD43E9}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{23EBFBB5-0E8F-4F4D-BC81-0E330380F4E6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -638,7 +736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -662,145 +760,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2023</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2023</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2023</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2024</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -808,10 +906,10 @@
         <v>2024</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -819,10 +917,10 @@
         <v>2024</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -830,10 +928,10 @@
         <v>2024</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -841,31 +939,79 @@
         <v>2024</v>
       </c>
       <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2024</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2024</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2024</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A65C386E-1AB6-E14B-BD9D-7F5DF385DBAC}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{6A218302-4C72-924C-8E4A-942A4F3A19F4}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{5C7618D2-0379-2440-B242-831DCBF5D066}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
-    <hyperlink ref="C13" r:id="rId15" xr:uid="{16A22DE2-AF95-2242-881F-1F6FA08AEDF9}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{A5D54BD5-B8E2-4A45-9B8A-E268890EE3EE}"/>
-    <hyperlink ref="C3" r:id="rId17" xr:uid="{52181E37-6E98-6A4A-8AA7-ED997A745E46}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{A65C386E-1AB6-E14B-BD9D-7F5DF385DBAC}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{6A218302-4C72-924C-8E4A-942A4F3A19F4}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{5C7618D2-0379-2440-B242-831DCBF5D066}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
+    <hyperlink ref="C22" r:id="rId13" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{16A22DE2-AF95-2242-881F-1F6FA08AEDF9}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{A5D54BD5-B8E2-4A45-9B8A-E268890EE3EE}"/>
+    <hyperlink ref="C2" r:id="rId17" xr:uid="{52181E37-6E98-6A4A-8AA7-ED997A745E46}"/>
+    <hyperlink ref="C3" r:id="rId18" xr:uid="{D9510EA1-A631-164C-8040-F677AC160E61}"/>
+    <hyperlink ref="C4" r:id="rId19" xr:uid="{95A8B528-EB59-BA43-BE53-203E2630DB3E}"/>
+    <hyperlink ref="C5" r:id="rId20" xr:uid="{172BE36B-8643-1F48-A70D-F6F4AFBB7A9A}"/>
+    <hyperlink ref="C6" r:id="rId21" xr:uid="{63603B00-7E70-394B-9CB4-0DC03CB8EDFD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -873,142 +1019,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2020</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{CD2E828A-526F-5946-A54F-DA2B99E34B69}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{167856B5-A2D0-FA45-92F2-9FF10BF53DCB}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{E1980CB6-AF3F-0A4C-B919-F8B3A8DFD7E1}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{8D6148B3-0CCD-6248-B109-FABF37E0C91F}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{E8FE509F-5855-6B49-9029-33CE31C5084C}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{76A02310-C53E-BD4B-9ACF-A3B44F81BE3D}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{B3956656-7781-B346-83B7-F42CE185A9E7}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{75C4458C-313C-9743-9188-ABF56208E76C}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F539FA68-E851-0F46-9194-063EAA74D710}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1032,48 +1043,142 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2016</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{5236BDF4-0819-224E-8FD0-89E874DD08DA}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{523036E0-EA48-5147-AAD5-A2550EF1502E}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{CD2E828A-526F-5946-A54F-DA2B99E34B69}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{167856B5-A2D0-FA45-92F2-9FF10BF53DCB}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{E1980CB6-AF3F-0A4C-B919-F8B3A8DFD7E1}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{8D6148B3-0CCD-6248-B109-FABF37E0C91F}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{E8FE509F-5855-6B49-9029-33CE31C5084C}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{76A02310-C53E-BD4B-9ACF-A3B44F81BE3D}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{B3956656-7781-B346-83B7-F42CE185A9E7}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{75C4458C-313C-9743-9188-ABF56208E76C}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{91D4EEAD-902E-2C4B-87FB-DA4638C54C66}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{ACCFB4A8-6FB8-984E-A74A-1FE35EADAD24}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157BED6B-FEA3-424A-92B6-D4B0980E4ED2}">
-  <dimension ref="A1:C4"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F539FA68-E851-0F46-9194-063EAA74D710}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1095,13 +1200,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{5236BDF4-0819-224E-8FD0-89E874DD08DA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{523036E0-EA48-5147-AAD5-A2550EF1502E}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{2A570EAA-B84E-2043-9623-E48FDD0E2BE5}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{07BD82E5-0A04-2041-A534-EBD7387C6BE3}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157BED6B-FEA3-424A-92B6-D4B0980E4ED2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Autoavaliação PPG.xlsx
+++ b/PPG/Autoavaliação PPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA7DEB9-567C-E742-A221-9B559348BC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711CDE87-4DDC-054F-BDAD-9CA08F2AF5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>Publicação</t>
   </si>
@@ -55,9 +55,6 @@
     <t>2019-2020</t>
   </si>
   <si>
-    <t>Produção Bibliográfica.pdf</t>
-  </si>
-  <si>
     <t>Qualidade das Disciplinas.pdf</t>
   </si>
   <si>
@@ -79,12 +76,6 @@
     <t>2021-2022</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1jguRrIcKgoeerK-VTe4po3DZvOCAOJZ3</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ix-9zIVULXlJMvntkXWl38iDEdvziDyK</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1nSLC_mwELkrjKq2sMktkFgHooKwjgKRi</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>https://drive.google.com/file/d/1j_WVSwVdRET0oJaif0GPfHG5YRwGzowm</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ilDduzPYnLHOlnhH-TUPL4cVPcq43Kqw</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1nH6uwlrnGT-FaR7CoJ3LfaEH_7yVhvE9</t>
   </si>
   <si>
@@ -235,15 +223,6 @@
     <t>Perfil do Egresso - Sociodemográfico, Ocupacional e Atividades futuras</t>
   </si>
   <si>
-    <t>Proposta Curricular - Qualidade da Estrutura Curricular</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1L91kHlH436Jy_dI9Ohb13ZfllGUNcDLw</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xJ5nVVXWAMqzEe_ek01q0_K9VkPvfwIU</t>
-  </si>
-  <si>
     <t>Orientação de Dissertação e Tese - Qualidade da Orientação</t>
   </si>
   <si>
@@ -266,6 +245,33 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1PL2kGAcdmrf76ZLgfs4P0v33759kCcyg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iXwaF-vstbcs19687awDvH_AA_pSLRii</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13yIz-jyDWynFO3zg8zndICdDRx5tQNk7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kpQEvDQK4pKEFGmBsfEbhh5VjYjElwuE</t>
+  </si>
+  <si>
+    <t>Atividades Acadêmicas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cQ2_GLKeuLmnmQil0aWI9r_s7i7X6-Mt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19_iTf-eS_PXYp83TUShnIpNAC9ZRtI6X</t>
+  </si>
+  <si>
+    <t>Proposta Curricular - Qualidade da Proposta Curricular</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_AJTTBScY1ENZe2wxieqbn7LdpWhW3tX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_-W72D8ktWbZ-4JYw4K-L-XUbzvEnvNa</t>
   </si>
 </sst>
 </file>
@@ -297,18 +303,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -324,12 +324,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -645,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759DAEF-1C33-2240-8067-C53C73887A8D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,66 +668,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{87A61870-D487-C348-B1D6-DA553E86BFEE}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{D7FEB94A-4E31-DF43-A4D1-37B4F36C5688}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{6229E5D9-627C-DC49-A5F7-280EF72ECC8F}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{346B1A19-821D-B248-AE3A-7DD930CD43E9}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{23EBFBB5-0E8F-4F4D-BC81-0E330380F4E6}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{346B1A19-821D-B248-AE3A-7DD930CD43E9}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{23EBFBB5-0E8F-4F4D-BC81-0E330380F4E6}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{8C0A310B-D073-654D-A947-AAD6935DD7F3}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{486DAEEE-B19E-B946-84B9-EED8B3D15374}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{AF417165-2E83-AB42-9DD7-3196C4DD474A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -736,7 +759,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,123 +783,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2023</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,10 +907,10 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -895,21 +918,21 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,7 +943,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,10 +951,10 @@
         <v>2024</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -939,10 +962,10 @@
         <v>2024</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -950,10 +973,10 @@
         <v>2024</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -961,10 +984,10 @@
         <v>2024</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -972,10 +995,10 @@
         <v>2024</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -983,35 +1006,47 @@
         <v>2024</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{A65C386E-1AB6-E14B-BD9D-7F5DF385DBAC}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{6A218302-4C72-924C-8E4A-942A4F3A19F4}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{5C7618D2-0379-2440-B242-831DCBF5D066}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
-    <hyperlink ref="C19" r:id="rId9" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
-    <hyperlink ref="C16" r:id="rId10" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
-    <hyperlink ref="C22" r:id="rId13" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
-    <hyperlink ref="C20" r:id="rId14" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{16A22DE2-AF95-2242-881F-1F6FA08AEDF9}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{A5D54BD5-B8E2-4A45-9B8A-E268890EE3EE}"/>
-    <hyperlink ref="C2" r:id="rId17" xr:uid="{52181E37-6E98-6A4A-8AA7-ED997A745E46}"/>
-    <hyperlink ref="C3" r:id="rId18" xr:uid="{D9510EA1-A631-164C-8040-F677AC160E61}"/>
-    <hyperlink ref="C4" r:id="rId19" xr:uid="{95A8B528-EB59-BA43-BE53-203E2630DB3E}"/>
-    <hyperlink ref="C5" r:id="rId20" xr:uid="{172BE36B-8643-1F48-A70D-F6F4AFBB7A9A}"/>
-    <hyperlink ref="C6" r:id="rId21" xr:uid="{63603B00-7E70-394B-9CB4-0DC03CB8EDFD}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{6A218302-4C72-924C-8E4A-942A4F3A19F4}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{5C7618D2-0379-2440-B242-831DCBF5D066}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{B0902303-CA82-3D43-A334-1731092BD19D}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{C77712AF-537C-734A-8401-7258464011DE}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{58117109-4234-094E-B82A-AC2BBED8C741}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{2767A6D6-224B-6544-B6DF-C4D38AC2BE86}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{D5902C36-ED52-5041-B00B-FA55A0CFFCB5}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{4F4DB014-AF98-DB4D-9594-8B7E48C6CB52}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{FAE4B7B0-2D9B-B845-9F1C-29E965BFBD30}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{50633A75-2589-A94E-BA78-869D4F5F0E13}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{72A5BFFB-B4E7-D44A-91A1-0CA6FE1DABDF}"/>
+    <hyperlink ref="C23" r:id="rId12" xr:uid="{41F0D4E5-1AD3-4742-9A29-764A94786FCB}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{0CDFC20D-F83E-BA4B-ADD8-E14A754A5997}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{16A22DE2-AF95-2242-881F-1F6FA08AEDF9}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{A5D54BD5-B8E2-4A45-9B8A-E268890EE3EE}"/>
+    <hyperlink ref="C2" r:id="rId16" xr:uid="{52181E37-6E98-6A4A-8AA7-ED997A745E46}"/>
+    <hyperlink ref="C3" r:id="rId17" xr:uid="{D9510EA1-A631-164C-8040-F677AC160E61}"/>
+    <hyperlink ref="C5" r:id="rId18" xr:uid="{172BE36B-8643-1F48-A70D-F6F4AFBB7A9A}"/>
+    <hyperlink ref="C6" r:id="rId19" xr:uid="{63603B00-7E70-394B-9CB4-0DC03CB8EDFD}"/>
+    <hyperlink ref="C7" r:id="rId20" xr:uid="{8F91F320-0ED6-414C-932A-BCD80296ED5A}"/>
+    <hyperlink ref="C8" r:id="rId21" xr:uid="{1917BB94-F649-EA4F-A05D-BB71E6C1FD83}"/>
+    <hyperlink ref="C4" r:id="rId22" xr:uid="{35B0F00B-F3AF-3448-B612-0FA40F7183D6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1019,7 +1054,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1046,10 +1081,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1057,10 +1092,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1068,32 +1103,32 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1101,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,10 +1147,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1123,52 +1158,40 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
+      <c r="A10">
+        <v>2020</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2020</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{CD2E828A-526F-5946-A54F-DA2B99E34B69}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{167856B5-A2D0-FA45-92F2-9FF10BF53DCB}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{E1980CB6-AF3F-0A4C-B919-F8B3A8DFD7E1}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{8D6148B3-0CCD-6248-B109-FABF37E0C91F}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{E8FE509F-5855-6B49-9029-33CE31C5084C}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{76A02310-C53E-BD4B-9ACF-A3B44F81BE3D}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{B3956656-7781-B346-83B7-F42CE185A9E7}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{75C4458C-313C-9743-9188-ABF56208E76C}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{91D4EEAD-902E-2C4B-87FB-DA4638C54C66}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{ACCFB4A8-6FB8-984E-A74A-1FE35EADAD24}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{E1980CB6-AF3F-0A4C-B919-F8B3A8DFD7E1}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{8D6148B3-0CCD-6248-B109-FABF37E0C91F}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{E8FE509F-5855-6B49-9029-33CE31C5084C}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{76A02310-C53E-BD4B-9ACF-A3B44F81BE3D}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{B3956656-7781-B346-83B7-F42CE185A9E7}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{75C4458C-313C-9743-9188-ABF56208E76C}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{91D4EEAD-902E-2C4B-87FB-DA4638C54C66}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{ACCFB4A8-6FB8-984E-A74A-1FE35EADAD24}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{0A6B2E2E-4731-224D-88BB-949FE2BFC68B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1200,35 +1223,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1236,10 +1259,10 @@
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1285,13 +1308,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Autoavaliação PPG.xlsx
+++ b/PPG/Autoavaliação PPG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711CDE87-4DDC-054F-BDAD-9CA08F2AF5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8627045-2038-1B4C-BDDA-A4EB490C862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>Publicação</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1_-W72D8ktWbZ-4JYw4K-L-XUbzvEnvNa</t>
+  </si>
+  <si>
+    <t>2025 Relatório Final Seminário Interno de Autoavaliação Quadrienal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BEplQSXq4G_amHFtjL_3HfqHAWUENCM3</t>
   </si>
 </sst>
 </file>
@@ -311,11 +317,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -324,11 +339,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -644,14 +660,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759DAEF-1C33-2240-8067-C53C73887A8D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -741,6 +757,17 @@
       </c>
       <c r="C8" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -752,6 +779,7 @@
     <hyperlink ref="C7" r:id="rId5" xr:uid="{8C0A310B-D073-654D-A947-AAD6935DD7F3}"/>
     <hyperlink ref="C8" r:id="rId6" xr:uid="{486DAEEE-B19E-B946-84B9-EED8B3D15374}"/>
     <hyperlink ref="C4" r:id="rId7" xr:uid="{AF417165-2E83-AB42-9DD7-3196C4DD474A}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{90395679-20E1-9D47-944A-BCD482322ACF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Autoavaliação PPG.xlsx
+++ b/PPG/Autoavaliação PPG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8627045-2038-1B4C-BDDA-A4EB490C862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805890F2-BEC3-7D47-ABC9-F15E7ECA64D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Publicação</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1BEplQSXq4G_amHFtjL_3HfqHAWUENCM3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DU5UPIOlTI2WRY90t6X2YIU_kZXQE-Js</t>
   </si>
 </sst>
 </file>
@@ -317,20 +320,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -344,7 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -660,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759DAEF-1C33-2240-8067-C53C73887A8D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,7 +743,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B8" t="s">
@@ -768,6 +762,17 @@
       </c>
       <c r="C9" s="2" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -780,6 +785,7 @@
     <hyperlink ref="C8" r:id="rId6" xr:uid="{486DAEEE-B19E-B946-84B9-EED8B3D15374}"/>
     <hyperlink ref="C4" r:id="rId7" xr:uid="{AF417165-2E83-AB42-9DD7-3196C4DD474A}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{90395679-20E1-9D47-944A-BCD482322ACF}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{3CEA2EB2-F1D4-EB42-9AAD-0A8DECC79025}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -789,7 +795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/PPG/Autoavaliação PPG.xlsx
+++ b/PPG/Autoavaliação PPG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805890F2-BEC3-7D47-ABC9-F15E7ECA64D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F69BF81-66A8-2240-B71E-6FC93F064EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t>Publicação</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1DU5UPIOlTI2WRY90t6X2YIU_kZXQE-Js</t>
+  </si>
+  <si>
+    <t>GT-09 Autoavaliação - 1 Programa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gycDfO0EL0hNY49Hg-0CDHc2m9LTbQsd</t>
+  </si>
+  <si>
+    <t>GT-10 Autoavaliação - 2 Formação e Produção</t>
   </si>
 </sst>
 </file>
@@ -333,12 +342,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -654,9 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759DAEF-1C33-2240-8067-C53C73887A8D}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -743,7 +753,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
       <c r="B8" t="s">
@@ -754,7 +764,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>2025</v>
       </c>
       <c r="B9" t="s">
@@ -769,10 +779,21 @@
         <v>2025</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -786,6 +807,7 @@
     <hyperlink ref="C4" r:id="rId7" xr:uid="{AF417165-2E83-AB42-9DD7-3196C4DD474A}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{90395679-20E1-9D47-944A-BCD482322ACF}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{3CEA2EB2-F1D4-EB42-9AAD-0A8DECC79025}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{7968D866-4484-1740-B530-E4A33A662591}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Autoavaliação PPG.xlsx
+++ b/PPG/Autoavaliação PPG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F69BF81-66A8-2240-B71E-6FC93F064EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A3E31A-A3DD-9A4F-9857-12E9D491A374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>Publicação</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>GT-10 Autoavaliação - 2 Formação e Produção</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nb0VEsvALWv86gq1TT20_mn-CfDw-sdY</t>
+  </si>
+  <si>
+    <t>GT-10 Autoavaliação - 3 Impacto</t>
   </si>
 </sst>
 </file>
@@ -662,11 +668,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759DAEF-1C33-2240-8067-C53C73887A8D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -794,6 +798,17 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +823,7 @@
     <hyperlink ref="C9" r:id="rId8" xr:uid="{90395679-20E1-9D47-944A-BCD482322ACF}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{3CEA2EB2-F1D4-EB42-9AAD-0A8DECC79025}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{7968D866-4484-1740-B530-E4A33A662591}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{6E8C874B-D6FC-4C40-99C6-878EB75BAE44}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
